--- a/products.xlsx
+++ b/products.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.Proyectos\Git Tets\ARTICC7.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Recursos Pagina Web\Juanjo-SA.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2036F08-BB2D-4EA9-8CF5-E4DDF5E1ACB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87C2E37-A751-4052-A49F-A84493D68E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -841,20 +841,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="64.5546875" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="56.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="42.140625" customWidth="1"/>
+    <col min="5" max="5" width="70.42578125" customWidth="1"/>
+    <col min="6" max="6" width="43.42578125" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -886,7 +889,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A30" si="0">CHAR(INT((ROW(A1)-1)/999)+65)&amp;TEXT(MOD(ROW(A1)-1,999)+1,"000")</f>
         <v>A001</v>
@@ -895,7 +898,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="D2" t="s">
         <v>37</v>
@@ -920,7 +923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>A002</v>
@@ -954,7 +957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>A003</v>
@@ -985,7 +988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>A004</v>
@@ -1019,7 +1022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>A005</v>
@@ -1053,7 +1056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>A006</v>
@@ -1087,7 +1090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>A007</v>
@@ -1121,7 +1124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>A008</v>
@@ -1155,7 +1158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>A009</v>
@@ -1189,7 +1192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>A010</v>
@@ -1223,7 +1226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>A011</v>
@@ -1254,7 +1257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>A012</v>
@@ -1288,7 +1291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>A013</v>
@@ -1322,7 +1325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>A014</v>
@@ -1356,7 +1359,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>A015</v>
@@ -1390,7 +1393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>A016</v>
@@ -1424,7 +1427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>A017</v>
@@ -1458,7 +1461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>A018</v>
@@ -1492,7 +1495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>A019</v>
@@ -1523,7 +1526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>A020</v>
@@ -1557,7 +1560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>A021</v>
@@ -1591,7 +1594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>A022</v>
@@ -1625,7 +1628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>A023</v>
@@ -1656,7 +1659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>A024</v>
@@ -1690,7 +1693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>A025</v>
@@ -1721,7 +1724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>A026</v>
@@ -1752,7 +1755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>A027</v>
@@ -1786,7 +1789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>A028</v>
@@ -1817,7 +1820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>A029</v>

--- a/products.xlsx
+++ b/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Recursos Pagina Web\Juanjo-SA.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87C2E37-A751-4052-A49F-A84493D68E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026A068D-A816-45F5-BD20-D3EA363EAEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -842,7 +842,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,7 +932,7 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="D3" t="s">
         <v>38</v>

--- a/products.xlsx
+++ b/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Recursos Pagina Web\Juanjo-SA.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026A068D-A816-45F5-BD20-D3EA363EAEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4E0575-C287-4593-B26F-49C0B43D05FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -842,7 +842,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,7 +966,7 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>200000</v>
+        <v>500000</v>
       </c>
       <c r="D4" t="s">
         <v>39</v>
